--- a/Fuctionality&Requirements/ProgramFunctionality/TechnicalDataSearching.xlsx
+++ b/Fuctionality&Requirements/ProgramFunctionality/TechnicalDataSearching.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84F2FF1-FA7B-4357-B456-13B96D7A718F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84748E88-6A2C-419A-9534-C442A97E469B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11865" yWindow="735" windowWidth="14610" windowHeight="14745" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MaintTechicalDataSearching" sheetId="1" r:id="rId1"/>
     <sheet name="BrowseTechnicalDataSearching1" sheetId="2" r:id="rId2"/>
     <sheet name="EditTechnicalDataValue" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,6 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="185">
   <si>
     <t>№</t>
   </si>
@@ -164,12 +165,6 @@
     <t xml:space="preserve"> - Reset design</t>
   </si>
   <si>
-    <t xml:space="preserve"> If the user clicks on the "Save" item all changes should be saved. A new record should appear in the next program:</t>
-  </si>
-  <si>
-    <t>If the user clicks on the "Undo" item then all changes should be reverted. The program should switch to standart mode.</t>
-  </si>
-  <si>
     <t>The program window should switch to design edit mode if the user clicks on the "Enable design" item.</t>
   </si>
   <si>
@@ -206,9 +201,6 @@
     <t>If the user clicks on the "Copy" item the selected record should be copied. The copy should appear in the in the next program:</t>
   </si>
   <si>
-    <t>If the user clicks on the "Delete" item the selected record should be deleted. The record should diappear from the next program:</t>
-  </si>
-  <si>
     <t>If the user click on the "Change key" item …</t>
   </si>
   <si>
@@ -246,9 +238,6 @@
   </si>
   <si>
     <t>If the user clicks on the "View detailed information" item the next program should be opened:</t>
-  </si>
-  <si>
-    <t>The program shoul be opened for the record with the same value of the "Tech data key" field.</t>
   </si>
   <si>
     <t>If the user clicks on the "Point&amp;Shoot" item the next program should be opened:</t>
@@ -370,9 +359,6 @@
     <t>The user should be able to exit from the fullscreen mode by clicking on the "Restore Down" button.</t>
   </si>
   <si>
-    <t>There should be present horizontal and vertical scrollbars if the . The user should be able to scroll the list of spare parts if the size of the list more than the current size of the "Spare part" window.</t>
-  </si>
-  <si>
     <t>The program should start when the user selects the "Technical data searching" in the "Information searching" subtab of the "Basic" tab.  The default master design should be selected in the system properties for this program.</t>
   </si>
   <si>
@@ -445,12 +431,6 @@
     <t>If the user clicks on the "Excel" sub-item then "Export browser data to Excel" window should appear.</t>
   </si>
   <si>
-    <t>If the user clicks on the "Excel" sub-item then "Export browser data to OpenOffice Calc" window should appear.</t>
-  </si>
-  <si>
-    <t>If the user clicks on the "Excel" sub-item then "Export browser data to XML" window should appear.</t>
-  </si>
-  <si>
     <t>The "Options" tab should contain the next items:</t>
   </si>
   <si>
@@ -581,6 +561,39 @@
   </si>
   <si>
     <t>If the user clicks on the "OK" button the"Edit technical data value" window should close and the new values should be added to the editing record.</t>
+  </si>
+  <si>
+    <t>The "Undo" item should be disable in any case.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If the user clicks on the "Save"  item the selected technical data should be selected. A new record should appear in the next program:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If the user enter the key that doesn't exist in the system and clicks on the "Save"  item the "Quaestion" window should appear. If the user click on the "Yes" button in the "Question" window the next program should be opened in edit mode:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - (maint) tdm_type</t>
+  </si>
+  <si>
+    <t>The entered key should be displayed in the "Tech. data key" field of the tmd_type program.</t>
+  </si>
+  <si>
+    <t>The current design should be reset to default if the user clicks on the "Reset design" item.</t>
+  </si>
+  <si>
+    <t>If the user clicks on the "Delete" item the selected record should be deleted. The record should disappear from the next program:</t>
+  </si>
+  <si>
+    <t>The program should be opened for the record with the same value of the "Tech data key" field.</t>
+  </si>
+  <si>
+    <t>There should be present horizontal and vertical scrollbars if the . The user should be able to scroll the list of spare parts if the size of the list more than the current size of the "Technical data search" window.</t>
+  </si>
+  <si>
+    <t>If the user clicks on the "OpenOffice Calc" sub-item then "Export browser data to OpenOffice Calc" window should appear.</t>
+  </si>
+  <si>
+    <t>If the user clicks on the "XML" sub-item then "Export browser data to XML" window should appear.</t>
   </si>
 </sst>
 </file>
@@ -646,7 +659,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -931,12 +944,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1007,6 +1033,119 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1014,6 +1153,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1025,6 +1167,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1037,124 +1185,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1437,17 +1553,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C128"/>
+  <dimension ref="A2:C131"/>
   <sheetViews>
-    <sheetView topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="C132" sqref="C132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="79.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="55" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1463,919 +1579,1089 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="32"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
     </row>
     <row r="5" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="53" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85821","C85821")</f>
+        <v>C85821</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="54" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85822","C85822")</f>
+        <v>C85822</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="54" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85822","C85822")</f>
+        <v>C85822</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="54" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85822","C85822")</f>
+        <v>C85822</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="32"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="74"/>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="23"/>
-    </row>
-    <row r="11" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="C10" s="53" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85822","C85822")</f>
+        <v>C85822</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="14"/>
+      <c r="C11" s="54" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85822","C85822")</f>
+        <v>C85822</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
+      <c r="A12" s="67"/>
       <c r="B12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="27"/>
+      <c r="C12" s="66" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85822","C85822")</f>
+        <v>C85822</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
+      <c r="A13" s="68"/>
       <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="28"/>
+      <c r="C13" s="70"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
+      <c r="A14" s="68"/>
       <c r="B14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="28"/>
+      <c r="C14" s="70"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
+      <c r="A15" s="68"/>
       <c r="B15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="28"/>
+      <c r="C15" s="70"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
+      <c r="A16" s="68"/>
       <c r="B16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="28"/>
+      <c r="C16" s="70"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
+      <c r="A17" s="69"/>
       <c r="B17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="29"/>
+      <c r="C17" s="71"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
+      <c r="A18" s="67"/>
       <c r="B18" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="27"/>
+      <c r="C18" s="66" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85822","C85822")</f>
+        <v>C85822</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
+      <c r="A19" s="68"/>
       <c r="B19" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="28"/>
+      <c r="C19" s="70"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
+      <c r="A20" s="68"/>
       <c r="B20" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="28"/>
+      <c r="C20" s="70"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
+      <c r="A21" s="68"/>
       <c r="B21" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="28"/>
+      <c r="C21" s="70"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
+      <c r="A22" s="68"/>
       <c r="B22" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="28"/>
+      <c r="C22" s="70"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
+      <c r="A23" s="68"/>
       <c r="B23" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="28"/>
+      <c r="C23" s="70"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
+      <c r="A24" s="68"/>
       <c r="B24" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="28"/>
+      <c r="C24" s="70"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
+      <c r="A25" s="68"/>
       <c r="B25" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="28"/>
+      <c r="C25" s="70"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
+      <c r="A26" s="68"/>
       <c r="B26" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="28"/>
+      <c r="C26" s="70"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
+      <c r="A27" s="69"/>
       <c r="B27" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="29"/>
+      <c r="C27" s="71"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="20"/>
       <c r="B28" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="20"/>
+      <c r="C28" s="56"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="20"/>
       <c r="B29" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="20"/>
+      <c r="C29" s="56"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="20"/>
       <c r="B30" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="20"/>
+      <c r="C30" s="56"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="20"/>
       <c r="B31" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="20"/>
+      <c r="C31" s="54" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85822","C85822")</f>
+        <v>C85822</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="20"/>
       <c r="B32" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="20"/>
+      <c r="C32" s="54" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85822","C85822")</f>
+        <v>C85822</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
+      <c r="A33" s="67"/>
       <c r="B33" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="27"/>
+      <c r="C33" s="66" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85822","C85822")</f>
+        <v>C85822</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
+      <c r="A34" s="68"/>
       <c r="B34" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="28"/>
+      <c r="C34" s="70"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
+      <c r="A35" s="68"/>
       <c r="B35" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="28"/>
+      <c r="C35" s="70"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="28"/>
+      <c r="A36" s="68"/>
       <c r="B36" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="28"/>
+      <c r="C36" s="70"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
+      <c r="A37" s="68"/>
       <c r="B37" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="28"/>
+      <c r="C37" s="70"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
+      <c r="A38" s="69"/>
       <c r="B38" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="29"/>
+      <c r="C38" s="71"/>
     </row>
     <row r="39" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="17"/>
+      <c r="C39" s="60" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85822","C85822")</f>
+        <v>C85822</v>
+      </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="30" t="s">
+      <c r="A40" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="31"/>
-      <c r="C40" s="32"/>
+      <c r="B40" s="73"/>
+      <c r="C40" s="74"/>
     </row>
     <row r="41" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A41" s="23"/>
       <c r="B41" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="23"/>
+      <c r="C41" s="53" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85823","C85823")</f>
+        <v>C85823</v>
+      </c>
     </row>
     <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="24"/>
+      <c r="A42" s="63"/>
       <c r="B42" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="24"/>
+      <c r="C42" s="66" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85823","C85823")</f>
+        <v>C85823</v>
+      </c>
     </row>
     <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="25"/>
+      <c r="A43" s="64"/>
       <c r="B43" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="25"/>
+      <c r="C43" s="64"/>
     </row>
     <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="25"/>
+      <c r="A44" s="64"/>
       <c r="B44" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="25"/>
+      <c r="C44" s="64"/>
     </row>
     <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="25"/>
+      <c r="A45" s="64"/>
       <c r="B45" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="25"/>
+      <c r="C45" s="64"/>
     </row>
     <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="25"/>
+      <c r="A46" s="64"/>
       <c r="B46" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="25"/>
+      <c r="C46" s="64"/>
     </row>
     <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="25"/>
+      <c r="A47" s="64"/>
       <c r="B47" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="25"/>
+      <c r="C47" s="64"/>
     </row>
     <row r="48" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="26"/>
+      <c r="A48" s="65"/>
       <c r="B48" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="26"/>
+      <c r="C48" s="65"/>
     </row>
     <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="27"/>
+      <c r="A49" s="67"/>
       <c r="B49" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C49" s="27"/>
+        <v>175</v>
+      </c>
+      <c r="C49" s="66" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85823","C85823")</f>
+        <v>C85823</v>
+      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="28"/>
-      <c r="B50" s="71" t="str">
+      <c r="A50" s="68"/>
+      <c r="B50" s="49" t="str">
         <f>HYPERLINK("[../DesignTable.xlsx]GroupDesign!$B$1203","- (browse) tdm_search [1]")</f>
         <v>- (browse) tdm_search [1]</v>
       </c>
-      <c r="C50" s="28"/>
-    </row>
-    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="20"/>
-      <c r="B51" s="20" t="s">
+      <c r="C50" s="70"/>
+    </row>
+    <row r="51" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="78"/>
+      <c r="B51" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C51" s="81" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85823","C85823")</f>
+        <v>C85823</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="79"/>
+      <c r="B52" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="C52" s="82"/>
+    </row>
+    <row r="53" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="80"/>
+      <c r="B53" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C53" s="83"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="20"/>
+      <c r="B54" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C54" s="54" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85823","C85823")</f>
+        <v>C85823</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="14"/>
+      <c r="B55" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" s="61" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85823","C85823")</f>
+        <v>C85823</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A56" s="24"/>
+      <c r="B56" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C51" s="20"/>
-    </row>
-    <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
-      <c r="B52" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="C52" s="35"/>
-    </row>
-    <row r="53" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A53" s="34"/>
-      <c r="B53" s="20" t="s">
+      <c r="C56" s="61" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85823","C85823")</f>
+        <v>C85823</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="24"/>
+      <c r="B57" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="C57" s="61" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85823","C85823")</f>
+        <v>C85823</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A58" s="24"/>
+      <c r="B58" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C53" s="35"/>
-    </row>
-    <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="34"/>
-      <c r="B54" s="20" t="s">
+      <c r="C58" s="61" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85823","C85823")</f>
+        <v>C85823</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A59" s="23"/>
+      <c r="B59" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C54" s="35"/>
-    </row>
-    <row r="55" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A55" s="34"/>
-      <c r="B55" s="20" t="s">
+      <c r="C59" s="53" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85824","C85824")</f>
+        <v>C85824</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="75"/>
+      <c r="B60" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C55" s="35"/>
-    </row>
-    <row r="56" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="23"/>
-      <c r="B56" s="9" t="s">
+      <c r="C60" s="76" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85824","C85824")</f>
+        <v>C85824</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="75"/>
+      <c r="B61" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" s="77"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="75"/>
+      <c r="B62" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C56" s="23"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="33"/>
-      <c r="B57" s="21" t="s">
+      <c r="C62" s="77"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="75"/>
+      <c r="B63" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="33"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="33"/>
-      <c r="B58" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C58" s="33"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="33"/>
-      <c r="B59" s="19" t="s">
+      <c r="C63" s="77"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="75"/>
+      <c r="B64" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C59" s="33"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="33"/>
-      <c r="B60" s="19" t="s">
+      <c r="C64" s="77"/>
+    </row>
+    <row r="65" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="20"/>
+      <c r="B65" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C60" s="33"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="33"/>
-      <c r="B61" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C61" s="33"/>
-    </row>
-    <row r="62" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="20"/>
-      <c r="B62" s="20" t="s">
+      <c r="C65" s="54" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85824","C85824")</f>
+        <v>C85824</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="20"/>
+      <c r="B66" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66" s="56"/>
+    </row>
+    <row r="67" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="75"/>
+      <c r="B67" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C62" s="20"/>
-    </row>
-    <row r="63" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="20"/>
-      <c r="B63" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="C63" s="20"/>
-    </row>
-    <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="33"/>
-      <c r="B64" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="C64" s="33"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="33"/>
-      <c r="B65" s="71" t="str">
+      <c r="C67" s="77"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="75"/>
+      <c r="B68" s="49" t="str">
         <f>HYPERLINK("[../DesignTable.xlsx]GroupDesign!$B$1203","- (browse) tdm_search [1]")</f>
         <v>- (browse) tdm_search [1]</v>
       </c>
-      <c r="C65" s="33"/>
-    </row>
-    <row r="66" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="33"/>
-      <c r="B66" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="C66" s="33"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="33"/>
-      <c r="B67" s="71" t="str">
+      <c r="C68" s="77"/>
+    </row>
+    <row r="69" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="75"/>
+      <c r="B69" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="C69" s="77"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="75"/>
+      <c r="B70" s="49" t="str">
         <f>HYPERLINK("[../DesignTable.xlsx]GroupDesign!$B$1203","- (browse) tdm_search [1]")</f>
         <v>- (browse) tdm_search [1]</v>
       </c>
-      <c r="C67" s="33"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="20"/>
-      <c r="B68" s="37" t="s">
+      <c r="C70" s="77"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="20"/>
+      <c r="B71" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C71" s="56"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="20"/>
+      <c r="B72" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C72" s="54" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85825","C85825")</f>
+        <v>C85825</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="75"/>
+      <c r="B73" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C73" s="76" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85825","C85825")</f>
+        <v>C85825</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="75"/>
+      <c r="B74" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C74" s="77"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="75"/>
+      <c r="B75" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C75" s="77"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="75"/>
+      <c r="B76" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" s="77"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="75"/>
+      <c r="B77" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C77" s="77"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="75"/>
+      <c r="B78" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C78" s="77"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="75"/>
+      <c r="B79" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C68" s="20"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="20"/>
-      <c r="B69" s="39" t="s">
+      <c r="C79" s="77"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="75"/>
+      <c r="B80" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C69" s="20"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="33"/>
-      <c r="B70" s="21" t="s">
+      <c r="C80" s="77"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="75"/>
+      <c r="B81" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C70" s="33"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="33"/>
-      <c r="B71" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C71" s="33"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="33"/>
-      <c r="B72" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C72" s="33"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="33"/>
-      <c r="B73" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C73" s="33"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="33"/>
-      <c r="B74" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C74" s="33"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="33"/>
-      <c r="B75" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C75" s="33"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="33"/>
-      <c r="B76" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C76" s="33"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="33"/>
-      <c r="B77" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C77" s="33"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="33"/>
-      <c r="B78" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C78" s="33"/>
-    </row>
-    <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="20"/>
-      <c r="B79" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C79" s="20"/>
-    </row>
-    <row r="80" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="20"/>
-      <c r="B80" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C80" s="20"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="20"/>
-      <c r="B81" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C81" s="20"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C81" s="77"/>
+    </row>
+    <row r="82" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="20"/>
       <c r="B82" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C82" s="20"/>
+        <v>63</v>
+      </c>
+      <c r="C82" s="54" t="str">
+        <f t="shared" ref="C82:C88" si="0">HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85825","C85825")</f>
+        <v>C85825</v>
+      </c>
     </row>
     <row r="83" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="20"/>
       <c r="B83" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C83" s="20"/>
-    </row>
-    <row r="84" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="C83" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>C85825</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="20"/>
       <c r="B84" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C84" s="20"/>
-    </row>
-    <row r="85" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="27"/>
-      <c r="B85" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C85" s="27"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="28"/>
-      <c r="B86" s="72" t="str">
+        <v>65</v>
+      </c>
+      <c r="C84" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>C85825</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="20"/>
+      <c r="B85" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C85" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>C85825</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="20"/>
+      <c r="B86" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C86" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>C85825</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="20"/>
+      <c r="B87" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C87" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>C85825</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="67"/>
+      <c r="B88" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C88" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>C85825</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="68"/>
+      <c r="B89" s="50" t="str">
         <f>HYPERLINK("[../DesignTable.xlsx]GroupDesign!$B$1209","- (maint) tdm_type")</f>
         <v>- (maint) tdm_type</v>
       </c>
-      <c r="C86" s="28"/>
-    </row>
-    <row r="87" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="29"/>
-      <c r="B87" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C87" s="29"/>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="33"/>
-      <c r="B88" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="C88" s="33"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="33"/>
-      <c r="B89" s="73" t="str">
+      <c r="C89" s="70"/>
+    </row>
+    <row r="90" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="69"/>
+      <c r="B90" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C90" s="71"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="75"/>
+      <c r="B91" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C91" s="76" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85825","C85825")</f>
+        <v>C85825</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="75"/>
+      <c r="B92" s="51" t="str">
         <f>HYPERLINK("[../DesignTable.xlsx]GroupDesign!$B$1207","- (browse) tdm_type")</f>
         <v>- (browse) tdm_type</v>
       </c>
-      <c r="C89" s="33"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="33"/>
-      <c r="B90" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C90" s="33"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="33"/>
-      <c r="B91" s="72" t="str">
+      <c r="C92" s="77"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="75"/>
+      <c r="B93" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C93" s="76" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85825","C85825")</f>
+        <v>C85825</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="75"/>
+      <c r="B94" s="50" t="str">
         <f>HYPERLINK("[../DesignTable.xlsx]GroupDesign!$B$1210","- (apicbf) tdm_type_tree")</f>
         <v>- (apicbf) tdm_type_tree</v>
       </c>
-      <c r="C91" s="33"/>
-    </row>
-    <row r="92" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="33"/>
-      <c r="B92" s="6" t="s">
+      <c r="C94" s="77"/>
+    </row>
+    <row r="95" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="75"/>
+      <c r="B95" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C95" s="77"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="20"/>
+      <c r="B96" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C96" s="56"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="20"/>
+      <c r="B97" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C97" s="56"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="20"/>
+      <c r="B98" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C92" s="33"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="20"/>
-      <c r="B93" s="8" t="s">
+      <c r="C98" s="56"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="75"/>
+      <c r="B99" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C93" s="20"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="20"/>
-      <c r="B94" s="20" t="s">
+      <c r="C99" s="77"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="75"/>
+      <c r="B100" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C94" s="20"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="20"/>
-      <c r="B95" s="20" t="s">
+      <c r="C100" s="77"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="75"/>
+      <c r="B101" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C101" s="77"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="75"/>
+      <c r="B102" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C95" s="20"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="33"/>
-      <c r="B96" s="4" t="s">
+      <c r="C102" s="77"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="67"/>
+      <c r="B103" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C96" s="33"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="33"/>
-      <c r="B97" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C97" s="33"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="33"/>
-      <c r="B98" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C98" s="33"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="33"/>
-      <c r="B99" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C99" s="33"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="27"/>
-      <c r="B100" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C100" s="27"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="15"/>
-      <c r="B101" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C101" s="15"/>
-    </row>
-    <row r="102" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="15"/>
-      <c r="B102" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C102" s="15"/>
-    </row>
-    <row r="103" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="15"/>
-      <c r="B103" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="C103" s="15"/>
+      <c r="C103" s="84"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="15"/>
       <c r="B104" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C104" s="15"/>
+        <v>82</v>
+      </c>
+      <c r="C104" s="57"/>
     </row>
     <row r="105" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="16"/>
+      <c r="A105" s="15"/>
       <c r="B105" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C105" s="16"/>
+        <v>83</v>
+      </c>
+      <c r="C105" s="57"/>
     </row>
     <row r="106" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106" s="27"/>
-      <c r="B106" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C106" s="27"/>
+      <c r="A106" s="15"/>
+      <c r="B106" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C106" s="57"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="29"/>
-      <c r="B107" s="71" t="str">
+      <c r="A107" s="15"/>
+      <c r="B107" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C107" s="57"/>
+    </row>
+    <row r="108" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" s="16"/>
+      <c r="B108" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C108" s="56"/>
+    </row>
+    <row r="109" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109" s="67"/>
+      <c r="B109" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C109" s="66" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85826","C85826")</f>
+        <v>C85826</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="69"/>
+      <c r="B110" s="49" t="str">
         <f>HYPERLINK("[../DesignTable.xlsx]GroupDesign!$B$1203","- (browse) tdm_search [1]")</f>
         <v>- (browse) tdm_search [1]</v>
       </c>
-      <c r="C107" s="29"/>
-    </row>
-    <row r="108" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="37"/>
-      <c r="B108" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="C108" s="37"/>
-    </row>
-    <row r="109" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A109" s="37"/>
-      <c r="B109" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="C109" s="37"/>
-    </row>
-    <row r="110" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" s="20"/>
-      <c r="B110" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C110" s="20"/>
+      <c r="C110" s="71"/>
     </row>
     <row r="111" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A111" s="20"/>
-      <c r="B111" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="C111" s="20"/>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="20"/>
-      <c r="B112" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="C112" s="20"/>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="26"/>
+      <c r="B111" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C111" s="59"/>
+    </row>
+    <row r="112" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A112" s="26"/>
+      <c r="B112" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C112" s="59"/>
+    </row>
+    <row r="113" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="20"/>
       <c r="B113" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C113" s="20"/>
+        <v>90</v>
+      </c>
+      <c r="C113" s="54" t="str">
+        <f t="shared" ref="C113:C118" si="1">HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85826","C85826")</f>
+        <v>C85826</v>
+      </c>
     </row>
     <row r="114" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="20"/>
       <c r="B114" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C114" s="20"/>
-    </row>
-    <row r="115" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="C114" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>C85826</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="20"/>
       <c r="B115" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="C115" s="20"/>
-    </row>
-    <row r="116" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="B116" s="31"/>
-      <c r="C116" s="32"/>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="33"/>
-      <c r="B117" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="C117" s="33"/>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="33"/>
-      <c r="B118" s="73" t="str">
+        <v>92</v>
+      </c>
+      <c r="C115" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>C85826</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="20"/>
+      <c r="B116" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C116" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>C85826</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="20"/>
+      <c r="B117" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C117" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>C85826</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="20"/>
+      <c r="B118" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C118" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>C85826</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="72" t="s">
+        <v>96</v>
+      </c>
+      <c r="B119" s="73"/>
+      <c r="C119" s="74"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="75"/>
+      <c r="B120" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C120" s="76" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85827","C85827")</f>
+        <v>C85827</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="75"/>
+      <c r="B121" s="51" t="str">
         <f>HYPERLINK("[../DesignTable.xlsx]GroupDesign!$B$1207","- (browse) tdm_type")</f>
         <v>- (browse) tdm_type</v>
       </c>
-      <c r="C118" s="33"/>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="33"/>
-      <c r="B119" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C119" s="33"/>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="33"/>
-      <c r="B120" s="72" t="str">
+      <c r="C121" s="77"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="85"/>
+      <c r="B122" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C122" s="86" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85827","C85827")</f>
+        <v>C85827</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="85"/>
+      <c r="B123" s="50" t="str">
         <f>HYPERLINK("[../DesignTable.xlsx]GroupDesign!$B$1210","- (apicbf) tdm_type_tree")</f>
         <v>- (apicbf) tdm_type_tree</v>
       </c>
-      <c r="C120" s="33"/>
-    </row>
-    <row r="121" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A121" s="33"/>
-      <c r="B121" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C121" s="33"/>
-    </row>
-    <row r="122" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A122" s="20"/>
-      <c r="B122" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="C122" s="20"/>
-    </row>
-    <row r="123" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="20"/>
-      <c r="B123" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C123" s="20"/>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="20"/>
-      <c r="B124" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="C124" s="20"/>
-    </row>
-    <row r="125" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A125" s="33"/>
-      <c r="B125" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C125" s="33"/>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="33"/>
-      <c r="B126" s="72" t="str">
+      <c r="C123" s="87"/>
+    </row>
+    <row r="124" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A124" s="85"/>
+      <c r="B124" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C124" s="87"/>
+    </row>
+    <row r="125" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A125" s="20"/>
+      <c r="B125" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C125" s="54" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85827","C85827")</f>
+        <v>C85827</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A126" s="20"/>
+      <c r="B126" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C126" s="54" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85826","C85826")</f>
+        <v>C85826</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="20"/>
+      <c r="B127" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C127" s="54" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85826","C85826")</f>
+        <v>C85826</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A128" s="75"/>
+      <c r="B128" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C128" s="76" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85826","C85826")</f>
+        <v>C85826</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="75"/>
+      <c r="B129" s="50" t="str">
         <f>HYPERLINK("[../DesignTable.xlsx]GroupDesign!$B$1209","- (maint) tdm_type")</f>
         <v>- (maint) tdm_type</v>
       </c>
-      <c r="C126" s="33"/>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="33"/>
-      <c r="B127" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C127" s="33"/>
-    </row>
-    <row r="128" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A128" s="20"/>
-      <c r="B128" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="C128" s="20"/>
+      <c r="C129" s="77"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="75"/>
+      <c r="B130" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C130" s="77"/>
+    </row>
+    <row r="131" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A131" s="20"/>
+      <c r="B131" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C131" s="62" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85826","C85826")</f>
+        <v>C85826</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="A119:A121"/>
-    <mergeCell ref="C119:C121"/>
-    <mergeCell ref="A116:C116"/>
-    <mergeCell ref="A125:A127"/>
-    <mergeCell ref="C125:C127"/>
-    <mergeCell ref="A96:A100"/>
-    <mergeCell ref="C96:C100"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="A90:A92"/>
-    <mergeCell ref="C90:C92"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="A70:A78"/>
-    <mergeCell ref="C70:C78"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="C85:C87"/>
+  <mergeCells count="40">
+    <mergeCell ref="A122:A124"/>
+    <mergeCell ref="C122:C124"/>
+    <mergeCell ref="A119:C119"/>
+    <mergeCell ref="A128:A130"/>
+    <mergeCell ref="C128:C130"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="C99:C103"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="A93:A95"/>
+    <mergeCell ref="C93:C95"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="A73:A81"/>
+    <mergeCell ref="C73:C81"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="C88:C90"/>
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="C49:C50"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="C57:C61"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="C60:C64"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="C51:C53"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A12:A17"/>
@@ -2397,777 +2683,938 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CE8567-01D1-4008-B4A5-A606C409C325}">
   <dimension ref="A2:C109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="G109" sqref="G109"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="47"/>
-    <col min="2" max="2" width="79.5703125" style="47" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="47" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="30"/>
+    <col min="2" max="2" width="79.5703125" style="30" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="98" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="40" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="32"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
     </row>
     <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C5" s="5"/>
+        <v>106</v>
+      </c>
+      <c r="C5" s="53" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85828","C85828")</f>
+        <v>C85828</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="62" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85828","C85828")</f>
+        <v>C85828</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" s="7"/>
+        <v>103</v>
+      </c>
+      <c r="C7" s="62" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85828","C85828")</f>
+        <v>C85828</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="7"/>
+        <v>104</v>
+      </c>
+      <c r="C8" s="62" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85828","C85828")</f>
+        <v>C85828</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="7"/>
+        <v>105</v>
+      </c>
+      <c r="C9" s="62" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85828","C85828")</f>
+        <v>C85828</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="7"/>
+      <c r="C10" s="62" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85828","C85828")</f>
+        <v>C85828</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="48"/>
+      <c r="C11" s="60" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85828","C85828")</f>
+        <v>C85828</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="48"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" s="48"/>
+        <v>182</v>
+      </c>
+      <c r="C12" s="60" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85828","C85828")</f>
+        <v>C85828</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="32"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="74"/>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="C14" s="53" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85828","C85828")</f>
+        <v>C85828</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="14"/>
+      <c r="C15" s="62" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85828","C85828")</f>
+        <v>C85828</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
+      <c r="A16" s="67"/>
       <c r="B16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="27"/>
+      <c r="C16" s="66" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85828","C85828")</f>
+        <v>C85828</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
+      <c r="A17" s="68"/>
       <c r="B17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="28"/>
+      <c r="C17" s="70"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
+      <c r="A18" s="68"/>
       <c r="B18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="28"/>
+      <c r="C18" s="70"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
+      <c r="A19" s="68"/>
       <c r="B19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="28"/>
+      <c r="C19" s="70"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
+      <c r="A20" s="69"/>
       <c r="B20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="29"/>
+      <c r="C20" s="71"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
+      <c r="A21" s="67"/>
       <c r="B21" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="27"/>
+      <c r="C21" s="66" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85828","C85828")</f>
+        <v>C85828</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
+      <c r="A22" s="68"/>
       <c r="B22" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="28"/>
+      <c r="C22" s="70"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
+      <c r="A23" s="68"/>
       <c r="B23" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="28"/>
+      <c r="C23" s="70"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
+      <c r="A24" s="68"/>
       <c r="B24" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="28"/>
+      <c r="C24" s="70"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
+      <c r="A25" s="68"/>
       <c r="B25" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="28"/>
+        <v>52</v>
+      </c>
+      <c r="C25" s="70"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
+      <c r="A26" s="68"/>
       <c r="B26" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="28"/>
+      <c r="C26" s="70"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="49"/>
-      <c r="B27" s="50" t="s">
+      <c r="A27" s="32"/>
+      <c r="B27" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="99" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85828","C85828")</f>
+        <v>C85828</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="96"/>
+      <c r="B28" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="100" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85828","C85828")</f>
+        <v>C85828</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="96"/>
+      <c r="B29" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="101"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="96"/>
+      <c r="B30" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" s="101"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="96"/>
+      <c r="B31" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="101"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="96"/>
+      <c r="B32" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="101"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="88"/>
+      <c r="B33" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="C27" s="49"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="52"/>
-      <c r="B28" s="50" t="s">
+      <c r="C33" s="66" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85828","C85828")</f>
+        <v>C85828</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="90"/>
+      <c r="B34" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="C28" s="52"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="52"/>
-      <c r="B29" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="C29" s="52"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="52"/>
-      <c r="B30" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="C30" s="52"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="52"/>
-      <c r="B31" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="C31" s="52"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="52"/>
-      <c r="B32" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="C32" s="52"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="55"/>
-      <c r="B33" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="C33" s="55"/>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="56"/>
-      <c r="B34" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="C34" s="56"/>
+      <c r="C34" s="102"/>
     </row>
     <row r="35" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="32"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="74"/>
     </row>
     <row r="36" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A36" s="23"/>
       <c r="B36" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="23"/>
+      <c r="C36" s="53" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85830","C85830")</f>
+        <v>C85830</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="55"/>
-      <c r="B37" s="57" t="s">
+      <c r="A37" s="88"/>
+      <c r="B37" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="55"/>
+      <c r="C37" s="66" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85830","C85830")</f>
+        <v>C85830</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="61"/>
-      <c r="B38" s="53" t="s">
+      <c r="A38" s="89"/>
+      <c r="B38" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="61"/>
+      <c r="C38" s="103"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="61"/>
-      <c r="B39" s="53" t="s">
+      <c r="A39" s="89"/>
+      <c r="B39" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" s="103"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="89"/>
+      <c r="B40" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" s="103"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="89"/>
+      <c r="B41" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="103"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="89"/>
+      <c r="B42" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="103"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="89"/>
+      <c r="B43" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="103"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="89"/>
+      <c r="B44" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="C44" s="103"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="90"/>
+      <c r="B45" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="102"/>
+    </row>
+    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="24"/>
+      <c r="B46" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" s="61" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85830","C85830")</f>
+        <v>C85830</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A47" s="24"/>
+      <c r="B47" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C47" s="61" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85830","C85830")</f>
+        <v>C85830</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="24"/>
+      <c r="B48" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="C39" s="61"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="61"/>
-      <c r="B40" s="53" t="s">
+      <c r="C48" s="61" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85830","C85830")</f>
+        <v>C85830</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="91"/>
+      <c r="B49" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="C40" s="61"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="61"/>
-      <c r="B41" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" s="61"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="61"/>
-      <c r="B42" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="61"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="61"/>
-      <c r="B43" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="61"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="61"/>
-      <c r="B44" s="53" t="s">
+      <c r="C49" s="81" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85830","C85830")</f>
+        <v>C85830</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="92"/>
+      <c r="B50" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="C44" s="61"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="56"/>
-      <c r="B45" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="56"/>
-    </row>
-    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="34"/>
-      <c r="B46" s="22" t="s">
+      <c r="C50" s="94"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="92"/>
+      <c r="B51" s="41">
+        <v>-1</v>
+      </c>
+      <c r="C51" s="94"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="92"/>
+      <c r="B52" s="41">
+        <v>-2</v>
+      </c>
+      <c r="C52" s="94"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="92"/>
+      <c r="B53" s="41">
+        <v>-3</v>
+      </c>
+      <c r="C53" s="94"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="92"/>
+      <c r="B54" s="41">
+        <v>-4</v>
+      </c>
+      <c r="C54" s="94"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="93"/>
+      <c r="B55" s="42">
+        <v>-5</v>
+      </c>
+      <c r="C55" s="95"/>
+    </row>
+    <row r="56" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="24"/>
+      <c r="B56" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="C46" s="35"/>
-    </row>
-    <row r="47" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A47" s="34"/>
-      <c r="B47" s="20" t="s">
+      <c r="C56" s="61" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85830","C85830")</f>
+        <v>C85830</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="24"/>
+      <c r="B57" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C57" s="61" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85830","C85830")</f>
+        <v>C85830</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A58" s="24"/>
+      <c r="B58" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58" s="61" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85830","C85830")</f>
+        <v>C85830</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="24"/>
+      <c r="B59" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C59" s="61" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85830","C85830")</f>
+        <v>C85830</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="63"/>
+      <c r="B60" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C47" s="35"/>
-    </row>
-    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="34"/>
-      <c r="B48" s="19" t="s">
+      <c r="C60" s="66" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85830","C85830")</f>
+        <v>C85830</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="64"/>
+      <c r="B61" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="C48" s="35"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="40"/>
-      <c r="B49" s="17" t="s">
+      <c r="C61" s="64"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="64"/>
+      <c r="B62" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="C49" s="41"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
-      <c r="B50" s="19" t="s">
+      <c r="C62" s="64"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="65"/>
+      <c r="B63" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C50" s="43"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="42"/>
-      <c r="B51" s="62">
-        <v>-1</v>
-      </c>
-      <c r="C51" s="43"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="42"/>
-      <c r="B52" s="62">
-        <v>-2</v>
-      </c>
-      <c r="C52" s="43"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="42"/>
-      <c r="B53" s="62">
-        <v>-3</v>
-      </c>
-      <c r="C53" s="43"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="42"/>
-      <c r="B54" s="62">
-        <v>-4</v>
-      </c>
-      <c r="C54" s="43"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="44"/>
-      <c r="B55" s="63">
-        <v>-5</v>
-      </c>
-      <c r="C55" s="45"/>
-    </row>
-    <row r="56" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="34"/>
-      <c r="B56" s="63" t="s">
-        <v>129</v>
-      </c>
-      <c r="C56" s="35"/>
-    </row>
-    <row r="57" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="34"/>
-      <c r="B57" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C57" s="35"/>
-    </row>
-    <row r="58" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A58" s="34"/>
-      <c r="B58" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C58" s="35"/>
-    </row>
-    <row r="59" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="34"/>
-      <c r="B59" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C59" s="35"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="24"/>
-      <c r="B60" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="C60" s="24"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="25"/>
-      <c r="B61" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="C61" s="25"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="25"/>
-      <c r="B62" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="C62" s="25"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="26"/>
-      <c r="B63" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C63" s="26"/>
+      <c r="C63" s="65"/>
     </row>
     <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="14"/>
       <c r="B64" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="C64" s="14"/>
+        <v>129</v>
+      </c>
+      <c r="C64" s="62" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85830","C85830")</f>
+        <v>C85830</v>
+      </c>
     </row>
     <row r="65" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="14"/>
       <c r="B65" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="C65" s="14"/>
+        <v>183</v>
+      </c>
+      <c r="C65" s="62" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85830","C85830")</f>
+        <v>C85830</v>
+      </c>
     </row>
     <row r="66" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="14"/>
       <c r="B66" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="C66" s="14"/>
+        <v>184</v>
+      </c>
+      <c r="C66" s="62" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85830","C85830")</f>
+        <v>C85830</v>
+      </c>
     </row>
     <row r="67" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A67" s="34"/>
+      <c r="A67" s="24"/>
       <c r="B67" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C67" s="35"/>
+        <v>48</v>
+      </c>
+      <c r="C67" s="61" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85830","C85830")</f>
+        <v>C85830</v>
+      </c>
     </row>
     <row r="68" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A68" s="23"/>
       <c r="B68" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C68" s="23"/>
+        <v>49</v>
+      </c>
+      <c r="C68" s="53" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85831","C85831")</f>
+        <v>C85831</v>
+      </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="64"/>
-      <c r="B69" s="66" t="s">
+      <c r="A69" s="97"/>
+      <c r="B69" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C69" s="76" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85831","C85831")</f>
+        <v>C85831</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="97"/>
+      <c r="B70" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70" s="104"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="97"/>
+      <c r="B71" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="C69" s="64"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="64"/>
-      <c r="B70" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="C70" s="64"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="64"/>
-      <c r="B71" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="C71" s="64"/>
+      <c r="C71" s="104"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="64"/>
-      <c r="B72" s="47" t="s">
+      <c r="A72" s="97"/>
+      <c r="B72" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C72" s="64"/>
+      <c r="C72" s="104"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="64"/>
-      <c r="B73" s="57" t="s">
-        <v>138</v>
-      </c>
-      <c r="C73" s="64"/>
+      <c r="A73" s="97"/>
+      <c r="B73" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="C73" s="76" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85831","C85831")</f>
+        <v>C85831</v>
+      </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="64"/>
-      <c r="B74" s="73" t="str">
+      <c r="A74" s="97"/>
+      <c r="B74" s="51" t="str">
         <f>HYPERLINK("[../DesignTable.xlsx]GroupDesign!$B$1206","- (maint) tdm_search")</f>
         <v>- (maint) tdm_search</v>
       </c>
-      <c r="C74" s="64"/>
+      <c r="C74" s="104"/>
     </row>
     <row r="75" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="65"/>
-      <c r="B75" s="65" t="s">
-        <v>150</v>
-      </c>
-      <c r="C75" s="65"/>
+      <c r="A75" s="43"/>
+      <c r="B75" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="C75" s="62" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85831","C85831")</f>
+        <v>C85831</v>
+      </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="65"/>
-      <c r="B76" s="65" t="s">
-        <v>140</v>
-      </c>
-      <c r="C76" s="65"/>
+      <c r="A76" s="43"/>
+      <c r="B76" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="C76" s="62" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85831","C85831")</f>
+        <v>C85831</v>
+      </c>
     </row>
     <row r="77" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="65"/>
-      <c r="B77" s="65" t="s">
-        <v>141</v>
-      </c>
-      <c r="C77" s="65"/>
+      <c r="A77" s="43"/>
+      <c r="B77" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="C77" s="62" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85831","C85831")</f>
+        <v>C85831</v>
+      </c>
     </row>
     <row r="78" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="65"/>
-      <c r="B78" s="65" t="s">
-        <v>142</v>
-      </c>
-      <c r="C78" s="65"/>
+      <c r="A78" s="43"/>
+      <c r="B78" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="C78" s="62" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85831","C85831")</f>
+        <v>C85831</v>
+      </c>
     </row>
     <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="65"/>
-      <c r="B79" s="65" t="s">
-        <v>143</v>
-      </c>
-      <c r="C79" s="65"/>
+      <c r="A79" s="43"/>
+      <c r="B79" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="C79" s="62" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85831","C85831")</f>
+        <v>C85831</v>
+      </c>
     </row>
     <row r="80" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="65"/>
-      <c r="B80" s="74" t="s">
-        <v>144</v>
-      </c>
-      <c r="C80" s="65"/>
+      <c r="A80" s="43"/>
+      <c r="B80" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="C80" s="62" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85831","C85831")</f>
+        <v>C85831</v>
+      </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="65"/>
+      <c r="A81" s="43"/>
       <c r="B81" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C81" s="65"/>
+        <v>75</v>
+      </c>
+      <c r="C81" s="62" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85832","C85832")</f>
+        <v>C85832</v>
+      </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="55"/>
-      <c r="B82" s="66" t="s">
-        <v>137</v>
-      </c>
-      <c r="C82" s="64"/>
+      <c r="A82" s="88"/>
+      <c r="B82" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="C82" s="76" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85832","C85832")</f>
+        <v>C85832</v>
+      </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="56"/>
-      <c r="B83" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="C83" s="64"/>
+      <c r="A83" s="90"/>
+      <c r="B83" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C83" s="104"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="65"/>
-      <c r="B84" s="65" t="s">
-        <v>145</v>
-      </c>
-      <c r="C84" s="65"/>
+      <c r="A84" s="43"/>
+      <c r="B84" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="C84" s="62" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85832","C85832")</f>
+        <v>C85832</v>
+      </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="64"/>
-      <c r="B85" s="47" t="s">
-        <v>146</v>
-      </c>
-      <c r="C85" s="64"/>
+      <c r="A85" s="97"/>
+      <c r="B85" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="C85" s="76" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85832","C85832")</f>
+        <v>C85832</v>
+      </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="64"/>
-      <c r="B86" s="71" t="str">
+      <c r="A86" s="97"/>
+      <c r="B86" s="49" t="str">
         <f>HYPERLINK("[../DesignTable.xlsx]GroupDesign!$B$1205","- (browse) tdm_search [2]")</f>
         <v>- (browse) tdm_search [2]</v>
       </c>
-      <c r="C86" s="64"/>
+      <c r="C86" s="104"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="20"/>
       <c r="B87" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C87" s="58"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="75"/>
+      <c r="B88" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C88" s="77"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="75"/>
+      <c r="B89" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C89" s="77"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="75"/>
+      <c r="B90" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C90" s="77"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="75"/>
+      <c r="B91" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C87" s="20"/>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="33"/>
-      <c r="B88" s="4" t="s">
+      <c r="C91" s="77"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="67"/>
+      <c r="B92" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C88" s="33"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="33"/>
-      <c r="B89" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C89" s="33"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="33"/>
-      <c r="B90" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C90" s="33"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="33"/>
-      <c r="B91" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C91" s="33"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="27"/>
-      <c r="B92" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C92" s="27"/>
+      <c r="C92" s="84"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="15"/>
       <c r="B93" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C93" s="15"/>
+        <v>82</v>
+      </c>
+      <c r="C93" s="57"/>
     </row>
     <row r="94" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="15"/>
       <c r="B94" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C94" s="15"/>
+        <v>83</v>
+      </c>
+      <c r="C94" s="57"/>
     </row>
     <row r="95" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="15"/>
-      <c r="B95" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="C95" s="15"/>
+      <c r="B95" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C95" s="57"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="15"/>
       <c r="B96" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C96" s="15"/>
+        <v>85</v>
+      </c>
+      <c r="C96" s="57"/>
     </row>
     <row r="97" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="16"/>
       <c r="B97" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C97" s="16"/>
+        <v>86</v>
+      </c>
+      <c r="C97" s="62" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85833","C85833")</f>
+        <v>C85833</v>
+      </c>
     </row>
     <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="64"/>
-      <c r="B98" s="57" t="s">
-        <v>147</v>
-      </c>
-      <c r="C98" s="64"/>
+      <c r="A98" s="97"/>
+      <c r="B98" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="C98" s="76" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85833","C85833")</f>
+        <v>C85833</v>
+      </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="64"/>
-      <c r="B99" s="73" t="str">
+      <c r="A99" s="97"/>
+      <c r="B99" s="51" t="str">
         <f>HYPERLINK("[../DesignTable.xlsx]GroupDesign!$B$1206","- (maint) tdm_search")</f>
         <v>- (maint) tdm_search</v>
       </c>
-      <c r="C99" s="64"/>
+      <c r="C99" s="104"/>
     </row>
     <row r="100" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100" s="65"/>
-      <c r="B100" s="65" t="s">
-        <v>148</v>
-      </c>
-      <c r="C100" s="65"/>
+      <c r="A100" s="43"/>
+      <c r="B100" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="C100" s="62" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85833","C85833")</f>
+        <v>C85833</v>
+      </c>
     </row>
     <row r="101" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="65"/>
-      <c r="B101" s="74" t="s">
-        <v>149</v>
-      </c>
-      <c r="C101" s="65"/>
+      <c r="A101" s="43"/>
+      <c r="B101" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="C101" s="62" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85833","C85833")</f>
+        <v>C85833</v>
+      </c>
     </row>
     <row r="102" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="65"/>
-      <c r="B102" s="65" t="s">
-        <v>139</v>
-      </c>
-      <c r="C102" s="65"/>
+      <c r="A102" s="43"/>
+      <c r="B102" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="C102" s="62" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85833","C85833")</f>
+        <v>C85833</v>
+      </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="65"/>
-      <c r="B103" s="65" t="s">
-        <v>140</v>
-      </c>
-      <c r="C103" s="65"/>
+      <c r="A103" s="43"/>
+      <c r="B103" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="C103" s="62" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85833","C85833")</f>
+        <v>C85833</v>
+      </c>
     </row>
     <row r="104" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="65"/>
-      <c r="B104" s="65" t="s">
-        <v>141</v>
-      </c>
-      <c r="C104" s="65"/>
+      <c r="A104" s="43"/>
+      <c r="B104" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="C104" s="62" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85833","C85833")</f>
+        <v>C85833</v>
+      </c>
     </row>
     <row r="105" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="65"/>
-      <c r="B105" s="65" t="s">
-        <v>142</v>
-      </c>
-      <c r="C105" s="65"/>
+      <c r="A105" s="43"/>
+      <c r="B105" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="C105" s="62" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85833","C85833")</f>
+        <v>C85833</v>
+      </c>
     </row>
     <row r="106" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106" s="34"/>
+      <c r="A106" s="24"/>
       <c r="B106" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="C106" s="35"/>
+        <v>144</v>
+      </c>
+      <c r="C106" s="61" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85833","C85833")</f>
+        <v>C85833</v>
+      </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="65"/>
-      <c r="B107" s="65" t="s">
-        <v>152</v>
-      </c>
-      <c r="C107" s="65"/>
+      <c r="A107" s="43"/>
+      <c r="B107" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="C107" s="62" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85834","C85834")</f>
+        <v>C85834</v>
+      </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="64"/>
-      <c r="B108" s="57" t="s">
-        <v>153</v>
-      </c>
-      <c r="C108" s="64"/>
+      <c r="A108" s="97"/>
+      <c r="B108" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="C108" s="76" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85834","C85834")</f>
+        <v>C85834</v>
+      </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="64"/>
-      <c r="B109" s="73" t="str">
+      <c r="A109" s="97"/>
+      <c r="B109" s="51" t="str">
         <f>HYPERLINK("[../DesignTable.xlsx]GroupDesign!$B$1205","- (browse) tdm_search [2]")</f>
         <v>- (browse) tdm_search [2]</v>
       </c>
-      <c r="C109" s="64"/>
+      <c r="C109" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="C85:C86"/>
     <mergeCell ref="A98:A99"/>
     <mergeCell ref="C98:C99"/>
     <mergeCell ref="A108:A109"/>
@@ -3182,6 +3629,8 @@
     <mergeCell ref="C82:C83"/>
     <mergeCell ref="A73:A74"/>
     <mergeCell ref="C73:C74"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="C85:C86"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A37:A45"/>
@@ -3203,6 +3652,7 @@
     <hyperlink ref="B80" location="EditTechnicalDataValue!A1" display="If the User clicks on the &quot;Edit&quot; item the &quot;Edit technical data value&quot; window should open." xr:uid="{91423FF0-77F4-43D9-97C6-84B5675E916F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3210,7 +3660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7E83F5F-704E-488B-8FD1-54A554D115D5}">
   <dimension ref="A2:C35"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
@@ -3223,27 +3673,27 @@
   <sheetData>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="40" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="32"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C5" s="5"/>
     </row>
@@ -3255,205 +3705,205 @@
       <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="48"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="48"/>
+      <c r="C7" s="31"/>
     </row>
     <row r="8" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="32"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="74"/>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="54"/>
-      <c r="B9" s="67" t="s">
-        <v>155</v>
-      </c>
-      <c r="C9" s="54"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="36"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
+      <c r="A10" s="75"/>
       <c r="B10" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="75"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="75"/>
+      <c r="B11" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="75"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="75"/>
+      <c r="B12" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="C10" s="33"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="19" t="s">
+      <c r="C12" s="75"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="75"/>
+      <c r="B13" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="C11" s="33"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="C12" s="33"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="C13" s="33"/>
+      <c r="C13" s="75"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
+      <c r="A14" s="75"/>
       <c r="B14" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="C14" s="33"/>
+        <v>151</v>
+      </c>
+      <c r="C14" s="75"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
+      <c r="A15" s="75"/>
       <c r="B15" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="33"/>
+        <v>108</v>
+      </c>
+      <c r="C15" s="75"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
       <c r="B16" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C16" s="20"/>
     </row>
     <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
+      <c r="A17" s="75"/>
       <c r="B17" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="C17" s="33"/>
+        <v>158</v>
+      </c>
+      <c r="C17" s="75"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
+      <c r="A18" s="75"/>
       <c r="B18" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="C18" s="33"/>
+        <v>153</v>
+      </c>
+      <c r="C18" s="75"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
+      <c r="A19" s="75"/>
       <c r="B19" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="C19" s="33"/>
+        <v>154</v>
+      </c>
+      <c r="C19" s="75"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
+      <c r="A20" s="75"/>
       <c r="B20" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="C20" s="33"/>
+        <v>155</v>
+      </c>
+      <c r="C20" s="75"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
-      <c r="B21" s="70" t="s">
+      <c r="B21" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="20"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="67"/>
+      <c r="B22" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22" s="67"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="68"/>
+      <c r="B23" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23" s="68"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="68"/>
+      <c r="B24" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="C24" s="68"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="68"/>
+      <c r="B25" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" s="68"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="68"/>
+      <c r="B26" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" s="68"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="68"/>
+      <c r="B27" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27" s="68"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="68"/>
+      <c r="B28" s="46" t="s">
         <v>166</v>
       </c>
-      <c r="C21" s="20"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
-      <c r="B22" s="68" t="s">
+      <c r="C28" s="68"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="68"/>
+      <c r="B29" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="C22" s="27"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="68" t="s">
+      <c r="C29" s="68"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="69"/>
+      <c r="B30" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30" s="69"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="75"/>
+      <c r="B31" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C23" s="28"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="68" t="s">
-        <v>168</v>
-      </c>
-      <c r="C24" s="28"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="68" t="s">
+      <c r="C31" s="75"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="75"/>
+      <c r="B32" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C25" s="28"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-      <c r="B26" s="68" t="s">
+      <c r="C32" s="75"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="75"/>
+      <c r="B33" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C26" s="28"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
-      <c r="B27" s="68" t="s">
-        <v>172</v>
-      </c>
-      <c r="C27" s="28"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
-      <c r="B28" s="68" t="s">
-        <v>173</v>
-      </c>
-      <c r="C28" s="28"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
-      <c r="B29" s="68" t="s">
-        <v>174</v>
-      </c>
-      <c r="C29" s="28"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
-      <c r="B30" s="69" t="s">
-        <v>175</v>
-      </c>
-      <c r="C30" s="29"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
-      <c r="B31" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C31" s="33"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="33"/>
-      <c r="B32" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C32" s="33"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="33"/>
-      <c r="B33" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C33" s="33"/>
+      <c r="C33" s="75"/>
     </row>
     <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="20"/>
       <c r="B34" s="20" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C34" s="20"/>
     </row>
     <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="20"/>
       <c r="B35" s="20" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C35" s="20"/>
     </row>
